--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfc-Flt4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vegfc</t>
   </si>
   <si>
     <t>Flt4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H2">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I2">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J2">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.68075</v>
+        <v>16.203114</v>
       </c>
       <c r="N2">
-        <v>35.04225</v>
+        <v>48.609342</v>
       </c>
       <c r="O2">
-        <v>0.9587437520473568</v>
+        <v>0.9864083027928519</v>
       </c>
       <c r="P2">
-        <v>0.9587437520473568</v>
+        <v>0.9864083027928516</v>
       </c>
       <c r="Q2">
-        <v>31.10949332475001</v>
+        <v>38.961916106754</v>
       </c>
       <c r="R2">
-        <v>279.9854399227501</v>
+        <v>350.657244960786</v>
       </c>
       <c r="S2">
-        <v>0.3637767788792514</v>
+        <v>0.3516610149279585</v>
       </c>
       <c r="T2">
-        <v>0.3637767788792515</v>
+        <v>0.3516610149279584</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H3">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I3">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J3">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>0.491298</v>
       </c>
       <c r="O3">
-        <v>0.01344174212253386</v>
+        <v>0.009969697313440749</v>
       </c>
       <c r="P3">
-        <v>0.01344174212253386</v>
+        <v>0.009969697313440747</v>
       </c>
       <c r="Q3">
-        <v>0.436160116758</v>
+        <v>0.3937907955926667</v>
       </c>
       <c r="R3">
-        <v>3.925441050822001</v>
+        <v>3.544117160334</v>
       </c>
       <c r="S3">
-        <v>0.005100209144955545</v>
+        <v>0.003554262333196696</v>
       </c>
       <c r="T3">
-        <v>0.005100209144955545</v>
+        <v>0.003554262333196696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H4">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I4">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J4">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.046993</v>
+        <v>0.03620466666666667</v>
       </c>
       <c r="N4">
-        <v>0.140979</v>
+        <v>0.108614</v>
       </c>
       <c r="O4">
-        <v>0.003857136326003162</v>
+        <v>0.002204056812773619</v>
       </c>
       <c r="P4">
-        <v>0.003857136326003162</v>
+        <v>0.002204056812773619</v>
       </c>
       <c r="Q4">
-        <v>0.125157067809</v>
+        <v>0.08705753630688889</v>
       </c>
       <c r="R4">
-        <v>1.126413610281</v>
+        <v>0.783517826762</v>
       </c>
       <c r="S4">
-        <v>0.00146351579906022</v>
+        <v>0.0007857606769370647</v>
       </c>
       <c r="T4">
-        <v>0.00146351579906022</v>
+        <v>0.0007857606769370645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,61 +723,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.663313</v>
+        <v>2.404594333333333</v>
       </c>
       <c r="H5">
-        <v>7.989939000000001</v>
+        <v>7.213783</v>
       </c>
       <c r="I5">
-        <v>0.3794306644527502</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="J5">
-        <v>0.3794306644527503</v>
+        <v>0.3565065439253589</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.214248</v>
+        <v>0.02329166666666667</v>
       </c>
       <c r="N5">
-        <v>0.642744</v>
+        <v>0.06987500000000001</v>
       </c>
       <c r="O5">
-        <v>0.0175852519220634</v>
+        <v>0.001417943080933919</v>
       </c>
       <c r="P5">
-        <v>0.0175852519220634</v>
+        <v>0.001417943080933918</v>
       </c>
       <c r="Q5">
-        <v>0.570609483624</v>
+        <v>0.05600700968055556</v>
       </c>
       <c r="R5">
-        <v>5.135485352616</v>
+        <v>0.504063087125</v>
       </c>
       <c r="S5">
-        <v>0.006672383821357519</v>
+        <v>0.0005055059872666268</v>
       </c>
       <c r="T5">
-        <v>0.00667238382135752</v>
+        <v>0.0005055059872666266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.663313</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H6">
-        <v>7.989939000000001</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I6">
-        <v>0.3794306644527502</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J6">
-        <v>0.3794306644527503</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07763399999999999</v>
+        <v>16.203114</v>
       </c>
       <c r="N6">
-        <v>0.232902</v>
+        <v>48.609342</v>
       </c>
       <c r="O6">
-        <v>0.006372117582042634</v>
+        <v>0.9864083027928519</v>
       </c>
       <c r="P6">
-        <v>0.006372117582042634</v>
+        <v>0.9864083027928516</v>
       </c>
       <c r="Q6">
-        <v>0.206763641442</v>
+        <v>51.503725857972</v>
       </c>
       <c r="R6">
-        <v>1.860872772978</v>
+        <v>463.533532721748</v>
       </c>
       <c r="S6">
-        <v>0.002417776808125488</v>
+        <v>0.4648604154415832</v>
       </c>
       <c r="T6">
-        <v>0.002417776808125489</v>
+        <v>0.4648604154415831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H7">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I7">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J7">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.68075</v>
+        <v>0.163766</v>
       </c>
       <c r="N7">
-        <v>35.04225</v>
+        <v>0.491298</v>
       </c>
       <c r="O7">
-        <v>0.9587437520473568</v>
+        <v>0.009969697313440749</v>
       </c>
       <c r="P7">
-        <v>0.9587437520473568</v>
+        <v>0.009969697313440747</v>
       </c>
       <c r="Q7">
-        <v>37.12879794683334</v>
+        <v>0.5205517389346667</v>
       </c>
       <c r="R7">
-        <v>334.1591815215</v>
+        <v>4.684965650412001</v>
       </c>
       <c r="S7">
-        <v>0.4341631147689587</v>
+        <v>0.004698376546335866</v>
       </c>
       <c r="T7">
-        <v>0.4341631147689588</v>
+        <v>0.004698376546335865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J8">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.163766</v>
+        <v>0.03620466666666667</v>
       </c>
       <c r="N8">
-        <v>0.491298</v>
+        <v>0.108614</v>
       </c>
       <c r="O8">
-        <v>0.01344174212253386</v>
+        <v>0.002204056812773619</v>
       </c>
       <c r="P8">
-        <v>0.01344174212253386</v>
+        <v>0.002204056812773619</v>
       </c>
       <c r="Q8">
-        <v>0.5205517389346667</v>
+        <v>0.1150812878795556</v>
       </c>
       <c r="R8">
-        <v>4.684965650412</v>
+        <v>1.035731590916</v>
       </c>
       <c r="S8">
-        <v>0.006087036932838499</v>
+        <v>0.00103869641277539</v>
       </c>
       <c r="T8">
-        <v>0.006087036932838499</v>
+        <v>0.00103869641277539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.178631333333333</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>9.535893999999999</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.4528458348143826</v>
+        <v>0.471265716362492</v>
       </c>
       <c r="J9">
-        <v>0.4528458348143827</v>
+        <v>0.4712657163624919</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,42 +989,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.046993</v>
+        <v>0.02329166666666667</v>
       </c>
       <c r="N9">
-        <v>0.140979</v>
+        <v>0.06987500000000001</v>
       </c>
       <c r="O9">
-        <v>0.003857136326003162</v>
+        <v>0.001417943080933919</v>
       </c>
       <c r="P9">
-        <v>0.003857136326003162</v>
+        <v>0.001417943080933918</v>
       </c>
       <c r="Q9">
-        <v>0.1493734222473333</v>
+        <v>0.07403562147222223</v>
       </c>
       <c r="R9">
-        <v>1.344360800226</v>
+        <v>0.6663205932500001</v>
       </c>
       <c r="S9">
-        <v>0.001746688119541783</v>
+        <v>0.0006682279617975621</v>
       </c>
       <c r="T9">
-        <v>0.001746688119541783</v>
+        <v>0.0006682279617975618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.178631333333333</v>
+        <v>1.125649</v>
       </c>
       <c r="H10">
-        <v>9.535893999999999</v>
+        <v>3.376947</v>
       </c>
       <c r="I10">
-        <v>0.4528458348143826</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J10">
-        <v>0.4528458348143827</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1051,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.214248</v>
+        <v>16.203114</v>
       </c>
       <c r="N10">
-        <v>0.642744</v>
+        <v>48.609342</v>
       </c>
       <c r="O10">
-        <v>0.0175852519220634</v>
+        <v>0.9864083027928519</v>
       </c>
       <c r="P10">
-        <v>0.0175852519220634</v>
+        <v>0.9864083027928516</v>
       </c>
       <c r="Q10">
-        <v>0.6810154059039999</v>
+        <v>18.239019070986</v>
       </c>
       <c r="R10">
-        <v>6.129138653135999</v>
+        <v>164.151171638874</v>
       </c>
       <c r="S10">
-        <v>0.007963408087068028</v>
+        <v>0.164621060735806</v>
       </c>
       <c r="T10">
-        <v>0.007963408087068028</v>
+        <v>0.164621060735806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.178631333333333</v>
+        <v>1.125649</v>
       </c>
       <c r="H11">
-        <v>9.535893999999999</v>
+        <v>3.376947</v>
       </c>
       <c r="I11">
-        <v>0.4528458348143826</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J11">
-        <v>0.4528458348143827</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.07763399999999999</v>
+        <v>0.163766</v>
       </c>
       <c r="N11">
-        <v>0.232902</v>
+        <v>0.491298</v>
       </c>
       <c r="O11">
-        <v>0.006372117582042634</v>
+        <v>0.009969697313440749</v>
       </c>
       <c r="P11">
-        <v>0.006372117582042634</v>
+        <v>0.009969697313440747</v>
       </c>
       <c r="Q11">
-        <v>0.246769864932</v>
+        <v>0.184343034134</v>
       </c>
       <c r="R11">
-        <v>2.220928784388</v>
+        <v>1.659087307206</v>
       </c>
       <c r="S11">
-        <v>0.002885586905975502</v>
+        <v>0.001663836508985866</v>
       </c>
       <c r="T11">
-        <v>0.002885586905975502</v>
+        <v>0.001663836508985866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H12">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I12">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J12">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>11.68075</v>
+        <v>0.03620466666666667</v>
       </c>
       <c r="N12">
-        <v>35.04225</v>
+        <v>0.108614</v>
       </c>
       <c r="O12">
-        <v>0.9587437520473568</v>
+        <v>0.002204056812773619</v>
       </c>
       <c r="P12">
-        <v>0.9587437520473568</v>
+        <v>0.002204056812773619</v>
       </c>
       <c r="Q12">
-        <v>13.75163795466667</v>
+        <v>0.04075374682866668</v>
       </c>
       <c r="R12">
-        <v>123.764741592</v>
+        <v>0.366783721458</v>
       </c>
       <c r="S12">
-        <v>0.1608038583991467</v>
+        <v>0.0003678336540897599</v>
       </c>
       <c r="T12">
-        <v>0.1608038583991467</v>
+        <v>0.0003678336540897598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,140 +1219,140 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.177290666666667</v>
+        <v>1.125649</v>
       </c>
       <c r="H13">
-        <v>3.531872</v>
+        <v>3.376947</v>
       </c>
       <c r="I13">
-        <v>0.1677235007328672</v>
+        <v>0.166889370527102</v>
       </c>
       <c r="J13">
-        <v>0.1677235007328672</v>
+        <v>0.1668893705271019</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.163766</v>
+        <v>0.02329166666666667</v>
       </c>
       <c r="N13">
-        <v>0.491298</v>
+        <v>0.06987500000000001</v>
       </c>
       <c r="O13">
-        <v>0.01344174212253386</v>
+        <v>0.001417943080933919</v>
       </c>
       <c r="P13">
-        <v>0.01344174212253386</v>
+        <v>0.001417943080933918</v>
       </c>
       <c r="Q13">
-        <v>0.1928001833173333</v>
+        <v>0.02621824129166667</v>
       </c>
       <c r="R13">
-        <v>1.735201649856</v>
+        <v>0.2359641716250001</v>
       </c>
       <c r="S13">
-        <v>0.002254496044739819</v>
+        <v>0.0002366396282203213</v>
       </c>
       <c r="T13">
-        <v>0.002254496044739819</v>
+        <v>0.0002366396282203212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.177290666666667</v>
+        <v>0.03600666666666667</v>
       </c>
       <c r="H14">
-        <v>3.531872</v>
+        <v>0.10802</v>
       </c>
       <c r="I14">
-        <v>0.1677235007328672</v>
+        <v>0.005338369185047189</v>
       </c>
       <c r="J14">
-        <v>0.1677235007328672</v>
+        <v>0.005338369185047188</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.046993</v>
+        <v>16.203114</v>
       </c>
       <c r="N14">
-        <v>0.140979</v>
+        <v>48.609342</v>
       </c>
       <c r="O14">
-        <v>0.003857136326003162</v>
+        <v>0.9864083027928519</v>
       </c>
       <c r="P14">
-        <v>0.003857136326003162</v>
+        <v>0.9864083027928516</v>
       </c>
       <c r="Q14">
-        <v>0.05532442029866667</v>
+        <v>0.5834201247599999</v>
       </c>
       <c r="R14">
-        <v>0.497919782688</v>
+        <v>5.25078112284</v>
       </c>
       <c r="S14">
-        <v>0.0006469324074011599</v>
+        <v>0.005265811687504058</v>
       </c>
       <c r="T14">
-        <v>0.0006469324074011598</v>
+        <v>0.005265811687504056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.177290666666667</v>
+        <v>0.03600666666666667</v>
       </c>
       <c r="H15">
-        <v>3.531872</v>
+        <v>0.10802</v>
       </c>
       <c r="I15">
-        <v>0.1677235007328672</v>
+        <v>0.005338369185047189</v>
       </c>
       <c r="J15">
-        <v>0.1677235007328672</v>
+        <v>0.005338369185047188</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1361,152 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.214248</v>
+        <v>0.163766</v>
       </c>
       <c r="N15">
-        <v>0.642744</v>
+        <v>0.491298</v>
       </c>
       <c r="O15">
-        <v>0.0175852519220634</v>
+        <v>0.009969697313440749</v>
       </c>
       <c r="P15">
-        <v>0.0175852519220634</v>
+        <v>0.009969697313440747</v>
       </c>
       <c r="Q15">
-        <v>0.252232170752</v>
+        <v>0.005896667773333333</v>
       </c>
       <c r="R15">
-        <v>2.270089536768</v>
+        <v>0.05307000996</v>
       </c>
       <c r="S15">
-        <v>0.002949460013637854</v>
+        <v>5.322192492231984E-05</v>
       </c>
       <c r="T15">
-        <v>0.002949460013637854</v>
+        <v>5.322192492231982E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.10802</v>
+      </c>
+      <c r="I16">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J16">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03620466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.108614</v>
+      </c>
+      <c r="O16">
+        <v>0.002204056812773619</v>
+      </c>
+      <c r="P16">
+        <v>0.002204056812773619</v>
+      </c>
+      <c r="Q16">
+        <v>0.001303609364444445</v>
+      </c>
+      <c r="R16">
+        <v>0.01173248428</v>
+      </c>
+      <c r="S16">
+        <v>1.176606897140401E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.176606897140401E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.177290666666667</v>
-      </c>
-      <c r="H16">
-        <v>3.531872</v>
-      </c>
-      <c r="I16">
-        <v>0.1677235007328672</v>
-      </c>
-      <c r="J16">
-        <v>0.1677235007328672</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M16">
-        <v>0.07763399999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.232902</v>
-      </c>
-      <c r="O16">
-        <v>0.006372117582042634</v>
-      </c>
-      <c r="P16">
-        <v>0.006372117582042634</v>
-      </c>
-      <c r="Q16">
-        <v>0.091397783616</v>
-      </c>
-      <c r="R16">
-        <v>0.822580052544</v>
-      </c>
-      <c r="S16">
-        <v>0.001068753867941643</v>
-      </c>
-      <c r="T16">
-        <v>0.001068753867941643</v>
+      <c r="G17">
+        <v>0.03600666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.10802</v>
+      </c>
+      <c r="I17">
+        <v>0.005338369185047189</v>
+      </c>
+      <c r="J17">
+        <v>0.005338369185047188</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.02329166666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.06987500000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.001417943080933919</v>
+      </c>
+      <c r="P17">
+        <v>0.001417943080933918</v>
+      </c>
+      <c r="Q17">
+        <v>0.0008386552777777779</v>
+      </c>
+      <c r="R17">
+        <v>0.007547897500000001</v>
+      </c>
+      <c r="S17">
+        <v>7.569503649408505E-06</v>
+      </c>
+      <c r="T17">
+        <v>7.569503649408501E-06</v>
       </c>
     </row>
   </sheetData>
